--- a/data/trans_dic/P28B_2_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P28B_2_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,7 +538,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se ha alimentado peor respecto al último mes</t>
+          <t>Población que se ha alimentado peor respecto al último mes (tasa de respuesta: 99,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,22 +686,22 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11,71%</t>
+          <t>11,94%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>9,72%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,7%</t>
+          <t>9,87%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>13,86%</t>
+          <t>13,85%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -710,17 +711,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>15,65%</t>
+          <t>16,26%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>17,53%</t>
+          <t>17,45%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>10,31%</t>
+          <t>10,09%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -735,17 +736,17 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>13,61%</t>
+          <t>14,03%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>12,77%</t>
+          <t>13,55%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>9,01%</t>
+          <t>9,98%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -763,77 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,53; 22,71</t>
+          <t>11,85; 22,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,76; 18,41</t>
+          <t>7,42; 18,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,73; 14,12</t>
+          <t>5,76; 17,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,64; 14,01</t>
+          <t>5,02; 17,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,13; 22,79</t>
+          <t>7,49; 21,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,07; 24,32</t>
+          <t>12,97; 23,7</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,44; 22,18</t>
+          <t>11,22; 23,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,62; 24,08</t>
+          <t>12,05; 23,2</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,61; 15,33</t>
+          <t>6,32; 15,53</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>12,76; 27,39</t>
+          <t>12,18; 26,91</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>13,59; 21,32</t>
+          <t>13,0; 21,0</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>10,22; 18,25</t>
+          <t>10,62; 18,72</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>9,54; 16,93</t>
+          <t>9,92; 18,35</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>6,17; 13,12</t>
+          <t>6,81; 14,69</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>11,74; 22,32</t>
+          <t>11,94; 22,21</t>
         </is>
       </c>
     </row>
@@ -855,42 +856,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12,72%</t>
+          <t>12,46%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,82%</t>
+          <t>8,83%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>6,81%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,63%</t>
+          <t>7,62%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>22,46%</t>
+          <t>22,45%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>13,48%</t>
+          <t>12,98%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>13,05%</t>
+          <t>12,78%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>9,89%</t>
+          <t>10,04%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -905,22 +906,22 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>13,08%</t>
+          <t>12,71%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>10,82%</t>
+          <t>10,7%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>8,23%</t>
+          <t>8,32%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>15,05%</t>
+          <t>15,04%</t>
         </is>
       </c>
     </row>
@@ -933,77 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,78; 22,8</t>
+          <t>12,16; 23,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,12; 18,16</t>
+          <t>8,3; 18,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,2; 13,31</t>
+          <t>5,3; 13,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,84; 11,59</t>
+          <t>3,45; 10,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,42; 14,56</t>
+          <t>3,45; 14,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,47; 29,1</t>
+          <t>17,09; 28,74</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,86; 20,49</t>
+          <t>8,72; 19,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,09; 18,1</t>
+          <t>8,76; 17,72</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,53; 14,79</t>
+          <t>6,51; 15,24</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>16,49; 30,51</t>
+          <t>16,09; 30,02</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>15,6; 23,64</t>
+          <t>15,65; 23,44</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,85; 17,34</t>
+          <t>9,4; 16,88</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>7,92; 14,05</t>
+          <t>8,09; 13,97</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>5,79; 11,61</t>
+          <t>5,98; 11,73</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>11,0; 19,74</t>
+          <t>10,97; 20,17</t>
         </is>
       </c>
     </row>
@@ -1025,17 +1026,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,52%</t>
+          <t>12,28%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1050,17 +1051,17 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>12,42%</t>
+          <t>13,09%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8,17%</t>
+          <t>8,27%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>9,31%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1075,17 +1076,17 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>11,97%</t>
+          <t>12,69%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>7,11%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1103,77 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>20,94; 32,29</t>
+          <t>20,62; 32,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,62; 16,8</t>
+          <t>8,08; 17,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,7; 9,78</t>
+          <t>3,77; 9,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,68; 9,48</t>
+          <t>3,56; 9,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,7; 13,42</t>
+          <t>5,4; 13,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>23,68; 33,16</t>
+          <t>23,21; 33,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,99; 16,49</t>
+          <t>9,56; 17,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,58; 11,18</t>
+          <t>5,73; 11,63</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,68; 12,53</t>
+          <t>6,62; 13,22</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,07; 20,44</t>
+          <t>11,09; 19,79</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>23,57; 31,26</t>
+          <t>23,61; 31,3</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,45; 15,31</t>
+          <t>9,8; 15,66</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>5,34; 9,28</t>
+          <t>5,46; 9,43</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>5,94; 10,07</t>
+          <t>5,95; 10,28</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>9,13; 14,89</t>
+          <t>8,97; 14,71</t>
         </is>
       </c>
     </row>
@@ -1195,22 +1196,22 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,71%</t>
+          <t>7,51%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,99%</t>
+          <t>10,98%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1220,17 +1221,17 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,92%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,64%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1245,17 +1246,17 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>8,34%</t>
+          <t>8,27%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1273,77 +1274,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,34; 15,87</t>
+          <t>8,28; 15,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,05; 11,72</t>
+          <t>4,79; 11,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,65; 7,31</t>
+          <t>2,57; 7,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,03; 8,0</t>
+          <t>0,95; 7,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,38; 17,83</t>
+          <t>6,62; 18,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,87; 26,61</t>
+          <t>18,16; 26,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,06; 12,73</t>
+          <t>6,09; 12,51</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,02; 11,24</t>
+          <t>5,18; 11,06</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,86; 9,93</t>
+          <t>4,68; 9,69</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,61; 15,48</t>
+          <t>7,22; 15,73</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,59; 20,45</t>
+          <t>14,48; 20,17</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,33; 10,84</t>
+          <t>6,18; 10,83</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>4,5; 8,2</t>
+          <t>4,61; 8,48</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>3,47; 7,31</t>
+          <t>3,51; 7,22</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>7,99; 15,24</t>
+          <t>7,97; 15,02</t>
         </is>
       </c>
     </row>
@@ -1360,27 +1361,27 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,88%</t>
+          <t>8,89%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>8,71%</t>
+          <t>8,7%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1390,17 +1391,17 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>7,49%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -1415,17 +1416,17 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>6,33%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1443,77 +1444,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,61; 12,68</t>
+          <t>5,58; 12,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,37; 7,8</t>
+          <t>2,71; 8,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,66; 3,67</t>
+          <t>0,7; 4,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,97; 4,59</t>
+          <t>0,96; 4,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,87; 14,27</t>
+          <t>5,18; 14,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>15,17; 25,86</t>
+          <t>14,54; 25,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,92; 12,17</t>
+          <t>5,05; 12,49</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,8; 11,26</t>
+          <t>4,74; 10,83</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,48; 7,76</t>
+          <t>2,69; 8,1</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,43; 11,96</t>
+          <t>4,77; 11,75</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>11,19; 17,89</t>
+          <t>11,5; 17,96</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,2; 8,89</t>
+          <t>4,33; 9,16</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>2,94; 6,65</t>
+          <t>3,11; 6,71</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>2,11; 5,42</t>
+          <t>2,17; 5,43</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>5,62; 11,3</t>
+          <t>5,82; 11,44</t>
         </is>
       </c>
     </row>
@@ -1530,22 +1531,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1560,42 +1561,42 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>5,08%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>8,25%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>8,32%</t>
+          <t>8,31%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>7,31%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1613,77 +1614,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,69; 12,57</t>
+          <t>4,18; 11,69</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,9; 8,46</t>
+          <t>1,53; 7,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,3; 11,38</t>
+          <t>2,32; 10,71</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,4</t>
+          <t>0,0; 3,15</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,75</t>
+          <t>0,0; 3,8</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>4,34; 10,79</t>
+          <t>4,62; 10,29</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,97; 10,66</t>
+          <t>3,45; 13,8</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,56; 8,19</t>
+          <t>2,77; 8,56</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,79; 11,92</t>
+          <t>4,51; 16,2</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>4,24; 14,31</t>
+          <t>4,29; 15,41</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>5,21; 9,86</t>
+          <t>5,02; 9,82</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>3,03; 8,21</t>
+          <t>3,2; 9,27</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>3,25; 8,2</t>
+          <t>3,18; 8,35</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>2,67; 7,47</t>
+          <t>2,97; 10,02</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>2,87; 9,21</t>
+          <t>2,97; 8,94</t>
         </is>
       </c>
     </row>
@@ -1700,22 +1701,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>15,03%</t>
+          <t>15,02%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8,92%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>6,09%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1730,17 +1731,17 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>10,35%</t>
+          <t>10,75%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>9,38%</t>
+          <t>9,4%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>8,24%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1750,22 +1751,22 @@
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>17,3%</t>
+          <t>17,29%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>9,66%</t>
+          <t>9,89%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>7,65%</t>
+          <t>7,78%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -1783,77 +1784,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>13,13; 17,04</t>
+          <t>13,21; 17,43</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,29; 10,81</t>
+          <t>7,4; 10,83</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,58; 7,28</t>
+          <t>4,75; 7,9</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,36; 5,94</t>
+          <t>3,63; 6,35</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,8; 10,73</t>
+          <t>6,71; 10,69</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>17,49; 21,55</t>
+          <t>17,65; 21,57</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,81; 12,18</t>
+          <t>9,05; 12,75</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>8,06; 11,12</t>
+          <t>8,07; 10,92</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,65; 9,58</t>
+          <t>6,79; 10,08</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>11,41; 15,84</t>
+          <t>11,48; 15,77</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>15,98; 18,83</t>
+          <t>15,94; 18,59</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>8,48; 10,91</t>
+          <t>8,69; 11,28</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>6,73; 8,78</t>
+          <t>6,74; 8,81</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>5,38; 7,3</t>
+          <t>5,52; 7,61</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>9,71; 12,71</t>
+          <t>9,56; 12,66</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1873,4 +1881,1969 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha alimentado peor respecto al último mes (tasa de respuesta: 99,94%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>84014</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>59971</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>50976</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>50373</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>5828</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>83350</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>76227</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>89838</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>51836</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>7255</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>167363</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>136198</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>140814</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>102208</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>13084</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>60795; 115824</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>37234; 94668</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>30177; 90150</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>25621; 89179</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3152; 9087</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>60030; 109717</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>52596; 109728</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>62033; 119441</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>32480; 79816</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>4557; 10065</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>126822; 204899</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>103138; 181731</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>103055; 190652</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>69694; 150420</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>9493; 17649</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>94937</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>71412</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>49936</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>40504</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3770</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>116507</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>67045</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>64946</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>51952</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>10770</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>211444</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>138457</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>114882</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>92457</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>14540</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>68525; 130540</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>47555; 105672</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>29968; 75337</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>20521; 64444</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1707; 7337</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>88689; 149106</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>45023; 98324</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>44492; 90028</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>33666; 78866</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>7598; 14171</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>169409; 253693</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>102396; 183912</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>86862; 149954</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>66514; 130374</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>10603; 19497</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>162.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>177938</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>83932</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>42472</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>41418</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>5330</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>196515</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>93296</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>59142</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>67169</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>8084</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>374453</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>177227</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>101615</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>108587</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>13414</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>139347; 219941</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>55250; 119889</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>25645; 64439</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>23954; 61730</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3254; 7991</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>161111; 231428</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>68091; 124201</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>40943; 83143</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>47274; 94353</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>5917; 10557</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>323475; 428868</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>136766; 218626</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>76254; 131584</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>82548; 142566</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>10192; 16706</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>74110</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>48610</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>29089</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>17463</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>156331</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>61661</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>52540</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>45705</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>5666</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>230442</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>110271</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>81629</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>63168</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>12066</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>52838; 101769</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>30976; 72646</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>16585; 46293</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>6074; 47991</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3855; 10924</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>127684; 189561</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>41729; 85788</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>34851; 74503</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>30912; 63943</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>3787; 8247</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>194340; 270567</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>82373; 144398</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>60757; 111903</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>45479; 93590</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>8828; 16622</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>45490</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>24215</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>9178</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>11054</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>3849</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>98670</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>41442</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>37117</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>23754</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>3838</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>144160</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>65657</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>46295</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>34808</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>7688</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>28588; 64917</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>13411; 41933</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>3541; 20383</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>4723; 21858</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2292; 6341</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>73040; 128327</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>25704; 63596</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>23788; 54307</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>13831; 41565</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>2325; 5732</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>116652; 182156</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>43539; 91961</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>31262; 67404</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>21878; 54649</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>5417; 10644</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>41505</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>21718</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>27998</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>4629</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>561</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>51727</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>48053</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>35161</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>56989</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>5296</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>93232</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>69771</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>63159</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>61618</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>5857</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>22850; 63955</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>8355; 42830</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>12127; 55985</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 16773</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1778</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>33772; 75228</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>24648; 98611</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>19148; 59278</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>31148; 111956</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>2734; 9818</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>64213; 125556</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>40253; 116746</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>38588; 101409</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>36340; 122633</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>3285; 9888</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>207.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>319.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>526.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>246.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>227.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>187.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>224.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>517995</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>309859</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>209648</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>165441</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>25737</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>703100</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>387724</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>338745</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>297405</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>40911</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>1221094</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>697583</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>548393</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>462846</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>66648</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>455632; 601344</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>255070; 373457</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>163510; 271958</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>124704; 218308</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>20191; 32197</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>637617; 779386</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>326324; 459923</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>291025; 393763</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>245079; 363827</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>34777; 47774</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1125428; 1312611</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>613242; 795518</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>474758; 620811</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>388851; 536181</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>57715; 76476</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>